--- a/database.xlsx
+++ b/database.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C445C66-A0B3-4D00-9F36-1436E50C6A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EA01A3-CB58-40C7-AB16-ECC8B542ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="990" windowWidth="21600" windowHeight="11835" xr2:uid="{8F49D6E9-B71E-4FFC-887D-36F23D1E5A12}"/>
+    <workbookView xWindow="3165" yWindow="975" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{8F49D6E9-B71E-4FFC-887D-36F23D1E5A12}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan" sheetId="2" r:id="rId1"/>
-    <sheet name="2022" sheetId="1" r:id="rId2"/>
+    <sheet name="Jan22" sheetId="2" r:id="rId1"/>
+    <sheet name="Feb22" sheetId="3" r:id="rId2"/>
+    <sheet name="Mar22" sheetId="4" r:id="rId3"/>
+    <sheet name="2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="38">
   <si>
     <t>Month</t>
   </si>
@@ -145,6 +147,12 @@
   </si>
   <si>
     <t>Savings</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Loan</t>
   </si>
 </sst>
 </file>
@@ -502,10 +510,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED96856-C83F-4B38-811B-003BD80C1C50}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B:B)</f>
+        <v>1900</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <f>SUM(H:H)-SUM(J:J)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <f>SUM(D:D)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>F2-F3-F4</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02EBCB0-55EE-43F0-8AD4-9CBE5F796BD8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,14 +686,14 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2">
         <f>SUM(B:B)</f>
-        <v>1900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -569,7 +714,7 @@
       </c>
       <c r="F3">
         <f>SUM(D:D)</f>
-        <v>1500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,19 +722,19 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,7 +742,8 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <f>F2-F3-F4</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +751,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2603500A-9155-425A-A662-6CD659247CF0}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>750</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B:B)</f>
+        <v>1200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <f>SUM(H:H)-SUM(J:J)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <f>SUM(D:D)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>F2-F3-F4</f>
+        <v>-400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EE78F4-5D49-4C7C-95D4-0E1F50955270}">
   <dimension ref="A1:M37"/>
   <sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILLEGEAR\Desktop\Projects\Financulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EA01A3-CB58-40C7-AB16-ECC8B542ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9412F30E-6A99-4049-8788-3A08F79324D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="975" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{8F49D6E9-B71E-4FFC-887D-36F23D1E5A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F49D6E9-B71E-4FFC-887D-36F23D1E5A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="38">
   <si>
     <t>Month</t>
   </si>
@@ -647,15 +647,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02EBCB0-55EE-43F0-8AD4-9CBE5F796BD8}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -674,8 +674,23 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -695,8 +710,24 @@
         <f>SUM(B:B)</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>20000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>3000</v>
+      </c>
+      <c r="K2">
+        <f>SUM(H:H)-SUM(J:J)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -717,7 +748,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -737,7 +768,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -755,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2603500A-9155-425A-A662-6CD659247CF0}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILLEGEAR\Desktop\Projects\Financulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9412F30E-6A99-4049-8788-3A08F79324D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C066ED-7583-4847-9CD5-0902C98D2383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F49D6E9-B71E-4FFC-887D-36F23D1E5A12}"/>
+    <workbookView xWindow="6585" yWindow="1665" windowWidth="21600" windowHeight="11835" xr2:uid="{8F49D6E9-B71E-4FFC-887D-36F23D1E5A12}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan22" sheetId="2" r:id="rId1"/>
-    <sheet name="Feb22" sheetId="3" r:id="rId2"/>
-    <sheet name="Mar22" sheetId="4" r:id="rId3"/>
+    <sheet name="10-2022" sheetId="2" r:id="rId1"/>
+    <sheet name="11-2022" sheetId="3" r:id="rId2"/>
+    <sheet name="12-2022" sheetId="4" r:id="rId3"/>
     <sheet name="2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED96856-C83F-4B38-811B-003BD80C1C50}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02EBCB0-55EE-43F0-8AD4-9CBE5F796BD8}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
